--- a/manuscript/wordcount.xlsx
+++ b/manuscript/wordcount.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oxforduni-my.sharepoint.com/personal/nils_reimer_oxforduni_onmicrosoft_com/Documents/Projects/Inclusive Identities/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{157C77CE-D4FA-45E5-B6CC-B0A3A6450EA7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{17F6C747-C556-4D00-BE03-38D988DA475F}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{157C77CE-D4FA-45E5-B6CC-B0A3A6450EA7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{ECA51067-A8A7-4869-9C10-E13D6764CB2F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10190" xr2:uid="{D2941838-62B8-44FD-AC24-CF5C99FABA83}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9890" xr2:uid="{D2941838-62B8-44FD-AC24-CF5C99FABA83}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Section</t>
   </si>
@@ -66,6 +67,15 @@
   </si>
   <si>
     <t>Ought [%]</t>
+  </si>
+  <si>
+    <t>Group differences</t>
+  </si>
+  <si>
+    <t>Individual differences</t>
+  </si>
+  <si>
+    <t>Consequences</t>
   </si>
 </sst>
 </file>
@@ -118,7 +128,46 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -161,6 +210,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -185,7 +237,7 @@
     <tableColumn id="3" xr3:uid="{85B0C62B-CE1C-43B0-8C45-7664489294F6}" name="Ought" totalsRowFunction="custom">
       <totalsRowFormula>SUBTOTAL(109,C2:C7)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{72C35ED1-D82C-401F-B037-04FD4DE2CA59}" name="Difference" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="4" xr3:uid="{72C35ED1-D82C-401F-B037-04FD4DE2CA59}" name="Difference" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[Ought]]-Table1[[#This Row],[Is]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(109,D2:D7)</totalsRowFormula>
     </tableColumn>
@@ -194,6 +246,32 @@
     </tableColumn>
     <tableColumn id="6" xr3:uid="{6F94A87C-B236-4BF6-AA06-A8F798C0C892}" name="Ought [%]" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Percent" totalsRowCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[Ought]]/Table1[[#Totals],[Ought]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3C1DC4C0-F59E-46C7-B6E8-80E6A0DCD5D8}" name="Table13" displayName="Table13" ref="A1:F6" totalsRowCount="1">
+  <autoFilter ref="A1:F5" xr:uid="{95520FEE-100B-4424-BC26-862F8183D746}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4966FEC2-E4FB-43FD-85F4-6A7E53EA3327}" name="Section"/>
+    <tableColumn id="2" xr3:uid="{3A3182A3-944A-4C4D-8A7D-64E066E9D794}" name="Is" totalsRowFunction="custom">
+      <totalsRowFormula>SUBTOTAL(109,B2:B5)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{951C9589-7753-4349-A306-ACEFA887D915}" name="Ought" totalsRowFunction="custom">
+      <totalsRowFormula>SUBTOTAL(109,C2:C5)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{7E1877D1-D530-4635-8B88-2AFC068B1F75}" name="Difference" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="5">
+      <calculatedColumnFormula>Table13[[#This Row],[Ought]]-Table13[[#This Row],[Is]]</calculatedColumnFormula>
+      <totalsRowFormula>SUBTOTAL(109,D2:D5)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{951C5F11-849D-4BC0-8E31-83FF152669B4}" name="Is [%]" totalsRowFunction="sum" totalsRowDxfId="4" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+      <calculatedColumnFormula>Table13[[#This Row],[Is]]/Table13[[#Totals],[Is]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{43C153F0-417C-41A2-BCC0-BA0F6143A9AB}" name="Ought [%]" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+      <calculatedColumnFormula>Table13[[#This Row],[Ought]]/Table13[[#Totals],[Ought]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -500,13 +578,15 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -545,7 +625,7 @@
       </c>
       <c r="E2" s="2">
         <f>Table1[[#This Row],[Is]]/Table1[[#Totals],[Is]]</f>
-        <v>2.8291210863824971E-2</v>
+        <v>2.9274004683840751E-2</v>
       </c>
       <c r="F2" s="2">
         <f>Table1[[#This Row],[Ought]]/Table1[[#Totals],[Ought]]</f>
@@ -557,18 +637,18 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>738</v>
+        <v>764</v>
       </c>
       <c r="C3">
         <v>750</v>
       </c>
       <c r="D3">
         <f>Table1[[#This Row],[Ought]]-Table1[[#This Row],[Is]]</f>
-        <v>12</v>
+        <v>-14</v>
       </c>
       <c r="E3" s="2">
         <f>Table1[[#This Row],[Is]]/Table1[[#Totals],[Is]]</f>
-        <v>0.13919275745001886</v>
+        <v>0.14910226385636222</v>
       </c>
       <c r="F3" s="2">
         <f>Table1[[#This Row],[Ought]]/Table1[[#Totals],[Ought]]</f>
@@ -580,22 +660,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>675</v>
+        <v>615</v>
       </c>
       <c r="C4">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="D4">
         <f>Table1[[#This Row],[Ought]]-Table1[[#This Row],[Is]]</f>
-        <v>-125</v>
+        <v>-15</v>
       </c>
       <c r="E4" s="2">
         <f>Table1[[#This Row],[Is]]/Table1[[#Totals],[Is]]</f>
-        <v>0.12731044888721238</v>
+        <v>0.12002341920374707</v>
       </c>
       <c r="F4" s="2">
         <f>Table1[[#This Row],[Ought]]/Table1[[#Totals],[Ought]]</f>
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -603,18 +683,18 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>995</v>
+        <v>979</v>
       </c>
       <c r="C5">
         <v>1000</v>
       </c>
       <c r="D5">
         <f>Table1[[#This Row],[Ought]]-Table1[[#This Row],[Is]]</f>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <f>Table1[[#This Row],[Is]]/Table1[[#Totals],[Is]]</f>
-        <v>0.18766503206337232</v>
+        <v>0.19106167056986728</v>
       </c>
       <c r="F5" s="2">
         <f>Table1[[#This Row],[Ought]]/Table1[[#Totals],[Ought]]</f>
@@ -626,22 +706,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1905</v>
+        <v>1780</v>
       </c>
       <c r="C6">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="D6">
         <f>Table1[[#This Row],[Ought]]-Table1[[#This Row],[Is]]</f>
-        <v>-155</v>
+        <v>-80</v>
       </c>
       <c r="E6" s="2">
         <f>Table1[[#This Row],[Is]]/Table1[[#Totals],[Is]]</f>
-        <v>0.35929837797057712</v>
+        <v>0.34738485558157689</v>
       </c>
       <c r="F6" s="2">
         <f>Table1[[#This Row],[Ought]]/Table1[[#Totals],[Ought]]</f>
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -649,18 +729,18 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C7">
         <v>800</v>
       </c>
       <c r="D7" s="1">
         <f>Table1[[#This Row],[Ought]]-Table1[[#This Row],[Is]]</f>
-        <v>-39</v>
+        <v>-36</v>
       </c>
       <c r="E7" s="2">
         <f>Table1[[#This Row],[Is]]/Table1[[#Totals],[Is]]</f>
-        <v>0.15824217276499433</v>
+        <v>0.16315378610460576</v>
       </c>
       <c r="F7" s="2">
         <f>Table1[[#This Row],[Ought]]/Table1[[#Totals],[Ought]]</f>
@@ -670,7 +750,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8">
         <f>SUBTOTAL(109,B2:B7)</f>
-        <v>5302</v>
+        <v>5124</v>
       </c>
       <c r="C8">
         <f>SUBTOTAL(109,C2:C7)</f>
@@ -678,7 +758,7 @@
       </c>
       <c r="D8" s="1">
         <f>SUBTOTAL(109,D2:D7)</f>
-        <v>-302</v>
+        <v>-124</v>
       </c>
       <c r="E8" s="2">
         <f>SUBTOTAL(109,Table1[Is '[%']])</f>
@@ -690,6 +770,330 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D7">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C7">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F7">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB4B688-295E-4F0D-96DA-F278167B7553}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <f>Table13[[#This Row],[Ought]]-Table13[[#This Row],[Is]]</f>
+        <v>-2</v>
+      </c>
+      <c r="E2" s="2">
+        <f>Table13[[#This Row],[Is]]/Table13[[#Totals],[Is]]</f>
+        <v>2.9213483146067417E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <f>Table13[[#This Row],[Ought]]/Table13[[#Totals],[Ought]]</f>
+        <v>2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>626</v>
+      </c>
+      <c r="C3">
+        <v>600</v>
+      </c>
+      <c r="D3">
+        <f>Table13[[#This Row],[Ought]]-Table13[[#This Row],[Is]]</f>
+        <v>-26</v>
+      </c>
+      <c r="E3" s="2">
+        <f>Table13[[#This Row],[Is]]/Table13[[#Totals],[Is]]</f>
+        <v>0.35168539325842696</v>
+      </c>
+      <c r="F3" s="2">
+        <f>Table13[[#This Row],[Ought]]/Table13[[#Totals],[Ought]]</f>
+        <v>0.35294117647058826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>440</v>
+      </c>
+      <c r="C4">
+        <v>450</v>
+      </c>
+      <c r="D4">
+        <f>Table13[[#This Row],[Ought]]-Table13[[#This Row],[Is]]</f>
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <f>Table13[[#This Row],[Is]]/Table13[[#Totals],[Is]]</f>
+        <v>0.24719101123595505</v>
+      </c>
+      <c r="F4" s="2">
+        <f>Table13[[#This Row],[Ought]]/Table13[[#Totals],[Ought]]</f>
+        <v>0.26470588235294118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>662</v>
+      </c>
+      <c r="C5">
+        <v>600</v>
+      </c>
+      <c r="D5">
+        <f>Table13[[#This Row],[Ought]]-Table13[[#This Row],[Is]]</f>
+        <v>-62</v>
+      </c>
+      <c r="E5" s="2">
+        <f>Table13[[#This Row],[Is]]/Table13[[#Totals],[Is]]</f>
+        <v>0.37191011235955057</v>
+      </c>
+      <c r="F5" s="2">
+        <f>Table13[[#This Row],[Ought]]/Table13[[#Totals],[Ought]]</f>
+        <v>0.35294117647058826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <f>SUBTOTAL(109,B2:B5)</f>
+        <v>1780</v>
+      </c>
+      <c r="C6">
+        <f>SUBTOTAL(109,C2:C5)</f>
+        <v>1700</v>
+      </c>
+      <c r="D6" s="1">
+        <f>SUBTOTAL(109,D2:D5)</f>
+        <v>-80</v>
+      </c>
+      <c r="E6" s="2">
+        <f>SUBTOTAL(109,Table13[Is '[%']])</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <f>SUBTOTAL(109,Table13[Ought '[%']])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D7:D8 D2:D5">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B8 B2:B5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E8 E2:E5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F8 F2:F5">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:C8 B2:C5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:F8 E2:F5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C8 C3:C5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/manuscript/wordcount.xlsx
+++ b/manuscript/wordcount.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oxforduni-my.sharepoint.com/personal/nils_reimer_oxforduni_onmicrosoft_com/Documents/Projects/Inclusive Identities/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{157C77CE-D4FA-45E5-B6CC-B0A3A6450EA7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{ECA51067-A8A7-4869-9C10-E13D6764CB2F}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="8_{157C77CE-D4FA-45E5-B6CC-B0A3A6450EA7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{2928935A-7233-492A-93D3-92FE6997AD12}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9890" xr2:uid="{D2941838-62B8-44FD-AC24-CF5C99FABA83}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9890" activeTab="2" xr2:uid="{D2941838-62B8-44FD-AC24-CF5C99FABA83}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="Results" sheetId="2" r:id="rId2"/>
+    <sheet name="Revision" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Section</t>
   </si>
@@ -76,6 +77,18 @@
   </si>
   <si>
     <t>Consequences</t>
+  </si>
+  <si>
+    <t>M/K</t>
+  </si>
+  <si>
+    <t>Difference [M/K]</t>
+  </si>
+  <si>
+    <t>CumSum</t>
+  </si>
+  <si>
+    <t>CumSum [D]</t>
   </si>
 </sst>
 </file>
@@ -119,16 +132,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
     <dxf>
       <font>
         <b val="0"/>
@@ -146,6 +160,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -164,6 +179,54 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -211,6 +274,45 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
@@ -237,14 +339,14 @@
     <tableColumn id="3" xr3:uid="{85B0C62B-CE1C-43B0-8C45-7664489294F6}" name="Ought" totalsRowFunction="custom">
       <totalsRowFormula>SUBTOTAL(109,C2:C7)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{72C35ED1-D82C-401F-B037-04FD4DE2CA59}" name="Difference" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="2">
+    <tableColumn id="4" xr3:uid="{72C35ED1-D82C-401F-B037-04FD4DE2CA59}" name="Difference" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>Table1[[#This Row],[Ought]]-Table1[[#This Row],[Is]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(109,D2:D7)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9E9BB5B0-9322-4850-855B-539AB4B8898B}" name="Is [%]" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{9E9BB5B0-9322-4850-855B-539AB4B8898B}" name="Is [%]" totalsRowFunction="sum" totalsRowDxfId="13" dataCellStyle="Percent" totalsRowCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[Is]]/Table1[[#Totals],[Is]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6F94A87C-B236-4BF6-AA06-A8F798C0C892}" name="Ought [%]" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{6F94A87C-B236-4BF6-AA06-A8F798C0C892}" name="Ought [%]" totalsRowFunction="sum" totalsRowDxfId="12" dataCellStyle="Percent" totalsRowCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[Ought]]/Table1[[#Totals],[Ought]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -263,15 +365,45 @@
     <tableColumn id="3" xr3:uid="{951C9589-7753-4349-A306-ACEFA887D915}" name="Ought" totalsRowFunction="custom">
       <totalsRowFormula>SUBTOTAL(109,C2:C5)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7E1877D1-D530-4635-8B88-2AFC068B1F75}" name="Difference" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="4" xr3:uid="{7E1877D1-D530-4635-8B88-2AFC068B1F75}" name="Difference" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>Table13[[#This Row],[Ought]]-Table13[[#This Row],[Is]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(109,D2:D5)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{951C5F11-849D-4BC0-8E31-83FF152669B4}" name="Is [%]" totalsRowFunction="sum" totalsRowDxfId="4" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{951C5F11-849D-4BC0-8E31-83FF152669B4}" name="Is [%]" totalsRowFunction="sum" totalsRowDxfId="9" dataCellStyle="Percent" totalsRowCellStyle="Percent">
       <calculatedColumnFormula>Table13[[#This Row],[Is]]/Table13[[#Totals],[Is]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{43C153F0-417C-41A2-BCC0-BA0F6143A9AB}" name="Ought [%]" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{43C153F0-417C-41A2-BCC0-BA0F6143A9AB}" name="Ought [%]" totalsRowFunction="sum" totalsRowDxfId="8" dataCellStyle="Percent" totalsRowCellStyle="Percent">
       <calculatedColumnFormula>Table13[[#This Row],[Ought]]/Table13[[#Totals],[Ought]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B7650DE5-009E-40B9-A45F-54A44D86F167}" name="Table14" displayName="Table14" ref="A1:H8" totalsRowCount="1">
+  <autoFilter ref="A1:H7" xr:uid="{2FDE11BD-A4BB-4F4E-B180-69DAF34A67BA}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{EC823829-2B37-4F8E-9B89-FC24FB2D1217}" name="Section"/>
+    <tableColumn id="2" xr3:uid="{B151012E-5634-4C53-B63C-B5EDB6F18F53}" name="Is" totalsRowFunction="custom">
+      <totalsRowFormula>SUBTOTAL(109,B2:B7)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{488BCAAA-076F-49A0-93F4-4E9E5A0E1B72}" name="Ought" totalsRowFunction="custom">
+      <totalsRowFormula>SUBTOTAL(109,C2:C7)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{33BAF429-74E5-4D1B-8615-249784BC8F40}" name="Difference" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="2">
+      <calculatedColumnFormula>Table14[[#This Row],[Ought]]-Table14[[#This Row],[Is]]</calculatedColumnFormula>
+      <totalsRowFormula>SUBTOTAL(109,D2:D7)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C8B19758-63F7-4198-ADB4-72DE0C168519}" name="M/K" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="1" dataCellStyle="Percent" totalsRowCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{CC530FE3-CB8A-4F02-82DF-0C642C17B242}" name="Difference [M/K]" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="0" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+      <calculatedColumnFormula>Table14[[#This Row],[M/K]]-Table14[[#This Row],[Is]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{E38C696D-BE59-48E1-9B54-8CCF63E3B4A3}" name="CumSum" dataDxfId="4">
+      <calculatedColumnFormula>SUM(F1:F2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{DAB115E5-8CF9-4132-A7A5-FEFD8DF656E9}" name="CumSum [D]" dataDxfId="3">
+      <calculatedColumnFormula>SUM(D1:D2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -577,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB5477A-3C51-49EF-B142-B28B6789C0A7}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1099,4 +1231,386 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C052917-71FE-4D57-B300-DDF94F5D0059}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>149</v>
+      </c>
+      <c r="C2">
+        <v>150</v>
+      </c>
+      <c r="D2">
+        <f>Table14[[#This Row],[Ought]]-Table14[[#This Row],[Is]]</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>149</v>
+      </c>
+      <c r="F2" s="3">
+        <f>Table14[[#This Row],[M/K]]-Table14[[#This Row],[Is]]</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G7" si="0">SUM(F1:F2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H7" si="1">SUM(D1:D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>730</v>
+      </c>
+      <c r="C3">
+        <v>750</v>
+      </c>
+      <c r="D3">
+        <f>Table14[[#This Row],[Ought]]-Table14[[#This Row],[Is]]</f>
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <v>700</v>
+      </c>
+      <c r="F3" s="3">
+        <f>Table14[[#This Row],[M/K]]-Table14[[#This Row],[Is]]</f>
+        <v>-30</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>629</v>
+      </c>
+      <c r="C4">
+        <v>600</v>
+      </c>
+      <c r="D4">
+        <f>Table14[[#This Row],[Ought]]-Table14[[#This Row],[Is]]</f>
+        <v>-29</v>
+      </c>
+      <c r="E4" s="3">
+        <v>615</v>
+      </c>
+      <c r="F4" s="3">
+        <f>Table14[[#This Row],[M/K]]-Table14[[#This Row],[Is]]</f>
+        <v>-14</v>
+      </c>
+      <c r="G4">
+        <f>SUM(F2:F4)</f>
+        <v>-44</v>
+      </c>
+      <c r="H4">
+        <f>SUM(D2:D4)</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>958</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <f>Table14[[#This Row],[Ought]]-Table14[[#This Row],[Is]]</f>
+        <v>42</v>
+      </c>
+      <c r="E5" s="3">
+        <v>937</v>
+      </c>
+      <c r="F5" s="3">
+        <f>Table14[[#This Row],[M/K]]-Table14[[#This Row],[Is]]</f>
+        <v>-21</v>
+      </c>
+      <c r="G5">
+        <f>SUM(F2:F5)</f>
+        <v>-65</v>
+      </c>
+      <c r="H5">
+        <f>SUM(D2:D5)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1723</v>
+      </c>
+      <c r="C6">
+        <v>1700</v>
+      </c>
+      <c r="D6">
+        <f>Table14[[#This Row],[Ought]]-Table14[[#This Row],[Is]]</f>
+        <v>-23</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1653</v>
+      </c>
+      <c r="F6" s="3">
+        <f>Table14[[#This Row],[M/K]]-Table14[[#This Row],[Is]]</f>
+        <v>-70</v>
+      </c>
+      <c r="G6">
+        <f>SUM(F2:F6)</f>
+        <v>-135</v>
+      </c>
+      <c r="H6">
+        <f>SUM(D2:D6)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>799</v>
+      </c>
+      <c r="C7">
+        <v>800</v>
+      </c>
+      <c r="D7" s="1">
+        <f>Table14[[#This Row],[Ought]]-Table14[[#This Row],[Is]]</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>797</v>
+      </c>
+      <c r="F7" s="3">
+        <f>Table14[[#This Row],[M/K]]-Table14[[#This Row],[Is]]</f>
+        <v>-2</v>
+      </c>
+      <c r="G7">
+        <f>SUM(F2:F7)</f>
+        <v>-137</v>
+      </c>
+      <c r="H7">
+        <f>SUM(D2:D7)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <f>SUBTOTAL(109,B2:B7)</f>
+        <v>4988</v>
+      </c>
+      <c r="C8">
+        <f>SUBTOTAL(109,C2:C7)</f>
+        <v>5000</v>
+      </c>
+      <c r="D8" s="1">
+        <f>SUBTOTAL(109,D2:D7)</f>
+        <v>12</v>
+      </c>
+      <c r="E8" s="3">
+        <f>SUBTOTAL(109,Table14[M/K])</f>
+        <v>4851</v>
+      </c>
+      <c r="F8" s="3">
+        <f>SUBTOTAL(109,Table14[Difference '[M/K']])</f>
+        <v>-137</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D7">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B7">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F7">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C7">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>